--- a/QuickMerge.xlsx
+++ b/QuickMerge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -77,6 +77,63 @@
   </si>
   <si>
     <t xml:space="preserve">Else &gt;&gt; Swap(pivotindex,maxPoint)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J = 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(0,9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(0,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging(0,4,9);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(5,9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(0,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging(0,2,4);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(3,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(0,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging(0,1,2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(2,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(0,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging(0,0,1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msort(1,1)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +186,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,25 +196,163 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFFAA95"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF3FAF46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF972F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF50938A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFD62E4E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA7500"/>
+        <bgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF6B5E9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FAF46"/>
+        <bgColor rgb="FF50938A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF861141"/>
+        <bgColor rgb="FF650953"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFAA95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50938A"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF6D6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF650953"/>
+        <bgColor rgb="FF861141"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD62E4E"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFEA7500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFA6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED4C05"/>
+        <bgColor rgb="FFEA7500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B5E9B"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFF10D0C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor rgb="FFFF7B59"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,7 +390,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,6 +432,102 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,25 +550,25 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FF861141"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FFD62E4E"/>
+      <rgbColor rgb="FFE6E905"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF650953"/>
+      <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -286,25 +577,25 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFFF6D6D"/>
       <rgbColor rgb="FFFFB66C"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFBF00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFFF972F"/>
+      <rgbColor rgb="FFEA7500"/>
+      <rgbColor rgb="FF6B5E9B"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF50938A"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFED4C05"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -317,16 +608,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N17"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D41" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L54" activeCellId="0" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -342,22 +635,24 @@
       <c r="E2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -377,22 +672,24 @@
       <c r="E3" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="L3" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="M3" s="1" t="n">
         <v>91</v>
       </c>
     </row>
@@ -410,22 +707,22 @@
       <c r="E4" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="L4" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="M4" s="1" t="n">
         <v>91</v>
       </c>
     </row>
@@ -443,22 +740,22 @@
       <c r="E5" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="H5" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>91</v>
       </c>
     </row>
@@ -487,6 +784,8 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -505,6 +804,8 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
@@ -517,6 +818,8 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="8" t="s">
@@ -529,6 +832,8 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="9" t="s">
@@ -541,37 +846,41 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="15" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="I16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="J16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="K16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="L16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="M16" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="N16" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="O16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="P16" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -579,42 +888,511 @@
       <c r="E17" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="n">
+      <c r="H17" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="J17" s="10" t="n">
         <v>85</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="L17" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="M17" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="M17" s="10" t="n">
+      <c r="O17" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>91</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>85</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="L19" s="12" t="n">
+        <v>95</v>
+      </c>
+      <c r="M19" s="12" t="n">
+        <v>87</v>
+      </c>
+      <c r="N19" s="12" t="n">
+        <v>84</v>
+      </c>
+      <c r="O19" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="P19" s="12" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="I21" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>85</v>
+      </c>
+      <c r="K21" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="L21" s="15" t="n">
+        <v>95</v>
+      </c>
+      <c r="M21" s="15" t="n">
+        <v>87</v>
+      </c>
+      <c r="N21" s="15" t="n">
+        <v>84</v>
+      </c>
+      <c r="O21" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="P21" s="16" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I23" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" s="19" t="n">
+        <v>85</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="L23" s="15" t="n">
+        <v>95</v>
+      </c>
+      <c r="M23" s="15" t="n">
+        <v>87</v>
+      </c>
+      <c r="N23" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="O23" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="P23" s="23" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="L25" s="24" t="n">
+        <v>95</v>
+      </c>
+      <c r="M25" s="25" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20" t="n">
+        <v>45</v>
+      </c>
+      <c r="I27" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" s="27" t="n">
+        <v>85</v>
+      </c>
+      <c r="L27" s="28" t="n">
+        <v>87</v>
+      </c>
+      <c r="M27" s="28" t="n">
+        <v>95</v>
+      </c>
+      <c r="N27" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="O27" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="P27" s="29" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="28" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" s="28" t="n">
+        <v>45</v>
+      </c>
+      <c r="L29" s="29" t="n">
+        <v>84</v>
+      </c>
+      <c r="M29" s="29" t="n">
+        <v>87</v>
+      </c>
+      <c r="N29" s="29" t="n">
+        <v>95</v>
+      </c>
+      <c r="O29" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="P29" s="12" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="28" t="n">
+        <v>14</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28" t="n">
+        <v>24</v>
+      </c>
+      <c r="I31" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J31" s="28" t="n">
+        <v>45</v>
+      </c>
+      <c r="K31" s="28" t="n">
+        <v>85</v>
+      </c>
+      <c r="L31" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="M31" s="22" t="n">
+        <v>84</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>87</v>
+      </c>
+      <c r="O31" s="22" t="n">
+        <v>91</v>
+      </c>
+      <c r="P31" s="22" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="30" t="n">
+        <v>14</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="n">
+        <v>22</v>
+      </c>
+      <c r="I33" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" s="30" t="n">
+        <v>25</v>
+      </c>
+      <c r="K33" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="L33" s="30" t="n">
+        <v>84</v>
+      </c>
+      <c r="M33" s="30" t="n">
+        <v>85</v>
+      </c>
+      <c r="N33" s="30" t="n">
+        <v>87</v>
+      </c>
+      <c r="O33" s="30" t="n">
+        <v>91</v>
+      </c>
+      <c r="P33" s="30" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D38" s="30" t="n">
+        <v>55</v>
+      </c>
+      <c r="E38" s="30" t="n">
+        <v>98</v>
+      </c>
+      <c r="G38" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" s="31" t="n">
+        <v>25</v>
+      </c>
+      <c r="I38" s="31" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0"/>
+      <c r="H45" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="P45" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="I62" s="34" t="n">
+        <v>45</v>
+      </c>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="F58:H58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
